--- a/BishoujoAcademy/Resource/src/excle/MapEvent.xlsx
+++ b/BishoujoAcademy/Resource/src/excle/MapEvent.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
-  <si>
-    <t>编号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>描述相关</t>
   </si>
@@ -25,43 +22,145 @@
     <t>名称文本ID</t>
   </si>
   <si>
-    <t>描述文本ID</t>
-  </si>
-  <si>
     <t>道具图标</t>
   </si>
   <si>
-    <t>展示图</t>
-  </si>
-  <si>
-    <t>道具类型</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
     <t>nameID</t>
   </si>
   <si>
-    <t>desID</t>
-  </si>
-  <si>
     <t>icon</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>所属的地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storyMapID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event_Choice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event_Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event_Battle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event_Dungeon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试事件选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试事件切场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试事件单次战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试事件连续战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试事件购物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event_Shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon/build/build_006.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon/build/build_001.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon/build/monster_001.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon/build/monster_002.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon/build/build_007.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventPos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480;650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>350;900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140;1050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120;640</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120;400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450;50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon/build/build_004.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -118,11 +217,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -430,161 +532,272 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.25" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>10000</v>
+        <v>1010001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D4">
-        <v>10001</v>
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>10101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10004</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>10001</v>
+        <v>1010002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>10002</v>
-      </c>
-      <c r="D5">
-        <v>10003</v>
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>10101</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
+      <c r="A6">
+        <v>1010003</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>10101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
+      <c r="A7">
+        <v>1010004</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>10101</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
+      <c r="A8">
+        <v>1010005</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>10101</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
+      <c r="A9">
+        <v>1010006</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>10101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10005</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/BishoujoAcademy/Resource/src/excle/MapEvent.xlsx
+++ b/BishoujoAcademy/Resource/src/excle/MapEvent.xlsx
@@ -144,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>120;640</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>120;400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,6 +157,10 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>0;640</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -569,7 +569,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -692,7 +692,7 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" t="s">
@@ -713,7 +713,7 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" t="s">
@@ -734,13 +734,13 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="3">
         <v>10005</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">

--- a/BishoujoAcademy/Resource/src/excle/MapEvent.xlsx
+++ b/BishoujoAcademy/Resource/src/excle/MapEvent.xlsx
@@ -104,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>icon/build/build_001.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>icon/build/monster_001.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,26 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>480;650</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>350;900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140;1050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120;400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>450;50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>icon/build/build_004.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,7 +135,31 @@
     <t>ID</t>
   </si>
   <si>
-    <t>0;640</t>
+    <t>icon/build/build_002.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>540;1300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180;1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160;720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150;930</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>550;700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500;850</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,7 +532,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -558,7 +558,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -581,7 +581,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
@@ -627,13 +627,13 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F4" s="3">
         <v>10004</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -650,11 +650,11 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -671,11 +671,11 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -692,11 +692,11 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -713,7 +713,7 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" t="s">
@@ -734,13 +734,13 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="3">
         <v>10005</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">

--- a/BishoujoAcademy/Resource/src/excle/MapEvent.xlsx
+++ b/BishoujoAcademy/Resource/src/excle/MapEvent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>描述相关</t>
   </si>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>500;850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照亮范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450;1050</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,22 +541,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.625" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -561,13 +574,16 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -584,13 +600,16 @@
         <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -609,11 +628,14 @@
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1010001</v>
       </c>
@@ -629,14 +651,17 @@
       <c r="E4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4" s="3">
         <v>10004</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1010002</v>
       </c>
@@ -652,12 +677,15 @@
       <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" t="s">
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1010003</v>
       </c>
@@ -673,12 +701,15 @@
       <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" t="s">
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1010004</v>
       </c>
@@ -694,12 +725,15 @@
       <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" t="s">
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1010005</v>
       </c>
@@ -715,12 +749,15 @@
       <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" t="s">
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1010006</v>
       </c>
@@ -736,68 +773,95 @@
       <c r="E9" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9" s="3">
         <v>10005</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1010007</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>10101</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="F12" s="2"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/BishoujoAcademy/Resource/src/excle/MapEvent.xlsx
+++ b/BishoujoAcademy/Resource/src/excle/MapEvent.xlsx
@@ -22,9 +22,6 @@
     <t>名称文本ID</t>
   </si>
   <si>
-    <t>道具图标</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
@@ -172,6 +169,10 @@
   </si>
   <si>
     <t>450;1050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件图标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,7 +545,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -559,80 +560,80 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" t="s">
         <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
         <v>6</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -640,16 +641,16 @@
         <v>1010001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>10101</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>50</v>
@@ -658,7 +659,7 @@
         <v>10004</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -666,23 +667,25 @@
         <v>1010002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>10101</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <v>50</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>10005</v>
+      </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -690,23 +693,23 @@
         <v>1010003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>10101</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6">
         <v>50</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -714,23 +717,23 @@
         <v>1010004</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>10101</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7">
         <v>50</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -738,23 +741,23 @@
         <v>1010005</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>10101</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8">
         <v>50</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -762,25 +765,25 @@
         <v>1010006</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>10101</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9">
         <v>50</v>
       </c>
       <c r="G9" s="3">
-        <v>10005</v>
+        <v>10006</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -788,23 +791,23 @@
         <v>1010007</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>10101</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10">
         <v>50</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">

--- a/BishoujoAcademy/Resource/src/excle/MapEvent.xlsx
+++ b/BishoujoAcademy/Resource/src/excle/MapEvent.xlsx
@@ -545,7 +545,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
